--- a/medicine/Premiers secours et secourisme/Classe_Katun/Classe_Katun.xlsx
+++ b/medicine/Premiers secours et secourisme/Classe_Katun/Classe_Katun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Classe Katun est le nom d'une classe de remorqueur, navire de sauvetage et bateau-pompe destinée à la lutte contre l'incendie de la marine russe.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Katun I
-La classe a été construite de 1970 à 1978. Elle est dévolue à la lutte anti-incendie et dispose également d'une capacité de remorquage. Elle peut être utilisée pour la décontamination des navires de guerre.
+          <t>Katun I</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe a été construite de 1970 à 1978. Elle est dévolue à la lutte anti-incendie et dispose également d'une capacité de remorquage. Elle peut être utilisée pour la décontamination des navires de guerre.
 Flotte de la Baltique:
 PZhS-96
 PZhS-282
@@ -529,8 +546,43 @@
 Flottille de la Caspienne:
 PZhS-273
 En réserve: PZhS-124 et PZhS-279.
-Katun II
-Cette version, construite entre 1978 et 1981, est une variante agrandie mais avec la même motorisation et donc une vitesse inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_Katun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_Katun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Katun II</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette version, construite entre 1978 et 1981, est une variante agrandie mais avec la même motorisation et donc une vitesse inférieure.
 Flotte du Nord:
 PKhS-64
 PKhS-92
